--- a/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
@@ -183,6 +183,24 @@
   </x:si>
   <x:si>
     <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>16.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден контрагент "Digital River GmbH".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не удается создать тело документа. Ошибка: "Object reference not set to an instance of an object."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1559595546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен частично</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Договор" с именем "Договор №10-491 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1244,8 +1262,8 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <x:c r="A2" s="3">
-        <x:v>5</x:v>
+      <x:c r="A2" s="3" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B2" s="26">
         <x:v>40452</x:v>
@@ -1301,13 +1319,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="U2" s="18" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="V2" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="W2" t="s">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="X2"/>
     </x:row>

--- a/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <x:si>
     <x:t>Содержание</x:t>
   </x:si>
@@ -167,40 +167,85 @@
     <x:t>Не загружен</x:t>
   </x:si>
   <x:si>
-    <x:t>15.05.2023</x:t>
-  </x:si>
-  <x:si>
     <x:t>Templates\TestDocs\testDoc.txt</x:t>
   </x:si>
   <x:si>
     <x:t>ТехноСистемы ЗАО</x:t>
   </x:si>
   <x:si>
-    <x:t>Доп.соглашение не может быть импортировано. Не найден ведущий документ с реквизитами "Дата документа" 20.08.2010, "Рег. №" 10-491 и "Контрагент" Digital River GmbH.</x:t>
-  </x:si>
-  <x:si>
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>16.05.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден контрагент "Digital River GmbH".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удается создать тело документа. Ошибка: "Object reference not set to an instance of an object."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1559595546</x:t>
+    <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приложение не может быть импортировано. Не найден журнал регистрации по ИД ""</x:t>
   </x:si>
   <x:si>
     <x:t>Загружен частично</x:t>
   </x:si>
   <x:si>
-    <x:t>Найдено несколько записей типа сущности "Договор" с именем "Договор №10-491 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.</x:t>
+    <x:t>Найдено несколько записей типа сущности "Официальный документ" с именем "Договор №10-491 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найдено подразделение "Служба генерального директора".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приложение не может быть импортировано. Найдены совпадения или не найден ведущий документ с реквизитами "Дата документа" 20.08.2010, "Рег. №" 171.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доп.соглашение не может быть импортировано. Не найден ведущий документ с реквизитами "Дата документа" 20.08.2010, "Рег. №" 171 и "Контрагент" Digital River GmbH.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Официальный документ" с именем "Договор №171 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Договор" с именем "Договор №171 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>595</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -834,229 +879,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="26">
-        <v>40410</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-    </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="L7" s="9"/>
-    </row>
-  </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:S7"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:V7"/>
+  <x:sheetViews>
+    <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="J2" sqref="J2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="25" style="5" customWidth="1"/>
+    <x:col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="19" style="5" customWidth="1"/>
+    <x:col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <x:col min="16" max="16" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="19" max="19" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="20" max="16384" width="9.140625" style="5"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <x:c r="A1" s="35" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B1" s="35" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C1" s="21" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E1" s="35" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1" s="22" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="21" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1" s="21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I1" s="21" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J1" s="36" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K1" s="20" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L1" s="20" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="20" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="20" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O1" s="20" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P1" s="20" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q1" s="17" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="R1" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="S1" s="17" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T1"/>
+    </x:row>
+    <x:row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <x:c r="A2" s="31" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B2" s="37"/>
+      <x:c r="C2" s="19" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D2" s="26">
+        <x:v>40410</x:v>
+      </x:c>
+      <x:c r="E2" s="38"/>
+      <x:c r="F2" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H2" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I2" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J2" s="4" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K2" s="37"/>
+      <x:c r="L2" s="39"/>
+      <x:c r="M2" s="40"/>
+      <x:c r="N2" s="31"/>
+      <x:c r="O2" s="31">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P2" s="2"/>
+      <x:c r="Q2" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="R2" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="S2" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="T2"/>
+      <x:c r="U2"/>
+      <x:c r="V2"/>
+    </x:row>
+    <x:row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A3" s="31"/>
+      <x:c r="B3" s="37"/>
+      <x:c r="C3" s="19"/>
+      <x:c r="D3" s="26"/>
+      <x:c r="E3" s="38"/>
+      <x:c r="F3" s="3"/>
+      <x:c r="G3" s="3"/>
+      <x:c r="H3" s="3"/>
+      <x:c r="I3" s="3"/>
+      <x:c r="J3" s="4"/>
+      <x:c r="K3" s="2"/>
+      <x:c r="L3" s="2"/>
+      <x:c r="M3" s="2"/>
+      <x:c r="N3" s="2"/>
+      <x:c r="O3" s="2"/>
+      <x:c r="P3" s="18"/>
+      <x:c r="Q3" s="18"/>
+      <x:c r="R3" s="18"/>
+      <x:c r="S3" s="18"/>
+    </x:row>
+    <x:row r="4" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A4" s="31"/>
+      <x:c r="B4" s="37"/>
+      <x:c r="C4" s="19"/>
+      <x:c r="D4" s="26"/>
+      <x:c r="E4" s="38"/>
+      <x:c r="F4" s="3"/>
+      <x:c r="G4" s="3"/>
+      <x:c r="H4" s="3"/>
+      <x:c r="I4" s="3"/>
+      <x:c r="J4" s="4"/>
+      <x:c r="K4" s="2"/>
+      <x:c r="L4" s="2"/>
+      <x:c r="M4" s="2"/>
+      <x:c r="N4" s="2"/>
+      <x:c r="O4" s="2"/>
+      <x:c r="P4" s="18"/>
+      <x:c r="Q4" s="18"/>
+      <x:c r="R4" s="18"/>
+      <x:c r="S4" s="18"/>
+    </x:row>
+    <x:row r="5" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A5" s="31"/>
+      <x:c r="B5" s="37"/>
+      <x:c r="C5" s="19"/>
+      <x:c r="D5" s="26"/>
+      <x:c r="E5" s="38"/>
+      <x:c r="F5" s="3"/>
+      <x:c r="G5" s="3"/>
+      <x:c r="H5" s="3"/>
+      <x:c r="I5" s="3"/>
+      <x:c r="J5" s="4"/>
+      <x:c r="K5" s="2"/>
+      <x:c r="L5" s="2"/>
+      <x:c r="M5" s="2"/>
+      <x:c r="N5" s="2"/>
+      <x:c r="O5" s="2"/>
+      <x:c r="P5" s="18"/>
+      <x:c r="Q5" s="18"/>
+      <x:c r="R5" s="18"/>
+      <x:c r="S5" s="18"/>
+    </x:row>
+    <x:row r="6" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A6" s="31"/>
+      <x:c r="B6" s="37"/>
+      <x:c r="C6" s="19"/>
+      <x:c r="D6" s="26"/>
+      <x:c r="E6" s="38"/>
+      <x:c r="F6" s="3"/>
+      <x:c r="G6" s="3"/>
+      <x:c r="H6" s="3"/>
+      <x:c r="I6" s="3"/>
+      <x:c r="J6" s="4"/>
+      <x:c r="K6" s="2"/>
+      <x:c r="L6" s="2"/>
+      <x:c r="M6" s="2"/>
+      <x:c r="N6" s="2"/>
+      <x:c r="O6" s="2"/>
+      <x:c r="P6" s="18"/>
+      <x:c r="Q6" s="18"/>
+      <x:c r="R6" s="18"/>
+      <x:c r="S6" s="18"/>
+    </x:row>
+    <x:row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <x:c r="A7" s="6"/>
+      <x:c r="L7" s="9"/>
+    </x:row>
+  </x:sheetData>
+  <x:sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <x:autoFilter ref="A1:S7"/>
+  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1263,13 +1318,13 @@
     </x:row>
     <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A2" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B2" s="26">
         <x:v>40452</x:v>
       </x:c>
       <x:c r="C2" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D2" s="26">
         <x:v>40410</x:v>
@@ -1284,13 +1339,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H2" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I2" s="3" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="J2" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K2" s="26">
         <x:v>40452</x:v>
@@ -1319,13 +1374,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="U2" s="18" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="V2" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W2" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="X2"/>
     </x:row>

--- a/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
@@ -246,6 +246,15 @@
   </x:si>
   <x:si>
     <x:t>595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -972,11 +981,11 @@
     </x:row>
     <x:row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <x:c r="A2" s="31" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B2" s="37"/>
       <x:c r="C2" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D2" s="26">
         <x:v>40410</x:v>
@@ -1318,13 +1327,13 @@
     </x:row>
     <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A2" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B2" s="26">
         <x:v>40452</x:v>
       </x:c>
       <x:c r="C2" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D2" s="26">
         <x:v>40410</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
@@ -255,6 +255,18 @@
   </x:si>
   <x:si>
     <x:t>125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -981,11 +993,11 @@
     </x:row>
     <x:row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <x:c r="A2" s="31" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B2" s="37"/>
       <x:c r="C2" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D2" s="26">
         <x:v>40410</x:v>
@@ -1018,7 +1030,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="R2" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="S2" s="2" t="s">
         <x:v>50</x:v>
@@ -1327,13 +1339,13 @@
     </x:row>
     <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A2" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="26">
         <x:v>40452</x:v>
       </x:c>
       <x:c r="C2" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D2" s="26">
         <x:v>40410</x:v>
@@ -1386,7 +1398,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V2" t="s">
-        <x:v>51</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="W2" t="s">
         <x:v>50</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Supagreements.xlsx
@@ -267,6 +267,24 @@
   </x:si>
   <x:si>
     <x:t>02.08.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.08.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приложение не может быть импортировано. Найдены совпадения или не найден ведущий документ с реквизитами "Дата документа" 20.08.2010, "Рег. №" 330.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доп.соглашение не может быть импортировано. Не найден ведущий документ с реквизитами "Дата документа" 20.08.2010, "Рег. №" 330 и "Контрагент" Digital River GmbH.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -993,11 +1011,11 @@
     </x:row>
     <x:row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <x:c r="A2" s="31" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="37"/>
       <x:c r="C2" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D2" s="26">
         <x:v>40410</x:v>
@@ -1030,7 +1048,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="R2" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="S2" s="2" t="s">
         <x:v>50</x:v>
@@ -1339,13 +1357,13 @@
     </x:row>
     <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A2" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B2" s="26">
         <x:v>40452</x:v>
       </x:c>
       <x:c r="C2" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D2" s="26">
         <x:v>40410</x:v>
@@ -1398,7 +1416,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V2" t="s">
-        <x:v>80</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="W2" t="s">
         <x:v>50</x:v>
